--- a/Aule esami Polito, disposizione posti.xlsx
+++ b/Aule esami Polito, disposizione posti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\OneDrive\Documenti\PoliTO\Didattica\exam-positioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB659678-65FD-4A52-A126-849222DE2BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF5CFE-C532-457A-AC7F-D26E72C6FDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5370" yWindow="-21720" windowWidth="38640" windowHeight="21840" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aule R" sheetId="1" r:id="rId1"/>
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1838,21 +1838,29 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="12"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
@@ -1908,7 +1916,9 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="12"/>
@@ -1970,21 +1980,29 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="9"/>
     </row>
@@ -2493,7 +2511,7 @@
       </c>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
@@ -2509,7 +2527,7 @@
       </c>
       <c r="I24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" si="0"/>
@@ -2533,7 +2551,7 @@
       </c>
       <c r="O24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="12">
         <f t="shared" si="0"/>
@@ -2549,7 +2567,7 @@
       </c>
       <c r="S24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" s="12">
         <f t="shared" si="0"/>
@@ -2565,7 +2583,7 @@
       </c>
       <c r="X24" s="4">
         <f>SUM(C24:V24)</f>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="13.8">
